--- a/vr_data.xlsx
+++ b/vr_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\vr_map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B05BF618-2CFF-480A-A89A-C2D2A98BE3F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72FA93A7-DBD8-45B2-BD3A-8CC11B8DC9CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{E19A63D7-6486-4FFD-AEFB-F3DEF9740B08}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1265" uniqueCount="794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1517" uniqueCount="800">
   <si>
     <t>城市</t>
   </si>
@@ -2417,6 +2417,25 @@
   </si>
   <si>
     <t>山西省太原市尖草坪区马吉掌五龙庙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国保</t>
+  </si>
+  <si>
+    <t>市保</t>
+  </si>
+  <si>
+    <t>未定级</t>
+  </si>
+  <si>
+    <t>县保</t>
+  </si>
+  <si>
+    <t>省保</t>
+  </si>
+  <si>
+    <t>保护级别</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2424,7 +2443,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2443,8 +2462,22 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2475,15 +2508,24 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2801,8 +2843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6778EFFD-5E7D-4914-A20B-29D922EDC285}">
   <dimension ref="A1:F253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
-      <selection activeCell="F222" sqref="F222"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2810,6 +2852,7 @@
     <col min="3" max="3" width="31.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="39" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="50.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -2828,6 +2871,9 @@
       <c r="E1" t="s">
         <v>541</v>
       </c>
+      <c r="F1" s="2" t="s">
+        <v>799</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -2845,6 +2891,9 @@
       <c r="E2" t="s">
         <v>542</v>
       </c>
+      <c r="F2" s="3" t="s">
+        <v>794</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -2862,7 +2911,9 @@
       <c r="E3" t="s">
         <v>543</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="F3" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -2880,6 +2931,9 @@
       <c r="E4" t="s">
         <v>544</v>
       </c>
+      <c r="F4" s="3" t="s">
+        <v>794</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -2897,6 +2951,9 @@
       <c r="E5" t="s">
         <v>545</v>
       </c>
+      <c r="F5" s="3" t="s">
+        <v>796</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -2914,6 +2971,9 @@
       <c r="E6" t="s">
         <v>546</v>
       </c>
+      <c r="F6" s="3" t="s">
+        <v>797</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -2931,6 +2991,9 @@
       <c r="E7" t="s">
         <v>793</v>
       </c>
+      <c r="F7" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -2948,6 +3011,9 @@
       <c r="E8" t="s">
         <v>547</v>
       </c>
+      <c r="F8" s="3" t="s">
+        <v>797</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -2965,6 +3031,9 @@
       <c r="E9" t="s">
         <v>548</v>
       </c>
+      <c r="F9" s="3" t="s">
+        <v>794</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -2982,6 +3051,9 @@
       <c r="E10" t="s">
         <v>549</v>
       </c>
+      <c r="F10" s="3" t="s">
+        <v>798</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -2999,6 +3071,9 @@
       <c r="E11" t="s">
         <v>550</v>
       </c>
+      <c r="F11" s="3" t="s">
+        <v>798</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -3016,6 +3091,9 @@
       <c r="E12" t="s">
         <v>551</v>
       </c>
+      <c r="F12" s="3" t="s">
+        <v>796</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -3033,6 +3111,9 @@
       <c r="E13" t="s">
         <v>552</v>
       </c>
+      <c r="F13" s="3" t="s">
+        <v>797</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -3050,6 +3131,9 @@
       <c r="E14" t="s">
         <v>553</v>
       </c>
+      <c r="F14" s="4" t="s">
+        <v>796</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -3067,6 +3151,9 @@
       <c r="E15" t="s">
         <v>554</v>
       </c>
+      <c r="F15" s="3" t="s">
+        <v>798</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -3084,8 +3171,11 @@
       <c r="E16" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16" s="3" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -3101,8 +3191,11 @@
       <c r="E17" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17" s="3" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -3118,8 +3211,11 @@
       <c r="E18" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18" s="3" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -3135,8 +3231,11 @@
       <c r="E19" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -3152,8 +3251,11 @@
       <c r="E20" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -3169,8 +3271,11 @@
       <c r="E21" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -3186,8 +3291,11 @@
       <c r="E22" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -3203,8 +3311,11 @@
       <c r="E23" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F23" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -3220,8 +3331,11 @@
       <c r="E24" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -3237,8 +3351,11 @@
       <c r="E25" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F25" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -3254,8 +3371,11 @@
       <c r="E26" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F26" s="3" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -3271,8 +3391,11 @@
       <c r="E27" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F27" s="3" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -3288,8 +3411,11 @@
       <c r="E28" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F28" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -3305,8 +3431,11 @@
       <c r="E29" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F29" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -3322,8 +3451,11 @@
       <c r="E30" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F30" s="3" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -3339,8 +3471,11 @@
       <c r="E31" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F31" s="3" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -3356,8 +3491,11 @@
       <c r="E32" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F32" s="3" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -3373,8 +3511,11 @@
       <c r="E33" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F33" s="3" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -3390,8 +3531,11 @@
       <c r="E34" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F34" s="3" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -3407,8 +3551,11 @@
       <c r="E35" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F35" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -3424,8 +3571,11 @@
       <c r="E36" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F36" s="3" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -3441,8 +3591,11 @@
       <c r="E37" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F37" s="3" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>86</v>
       </c>
@@ -3458,8 +3611,11 @@
       <c r="E38" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F38" s="3" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>86</v>
       </c>
@@ -3475,8 +3631,11 @@
       <c r="E39" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F39" s="3" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>86</v>
       </c>
@@ -3492,8 +3651,11 @@
       <c r="E40" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F40" s="3" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>86</v>
       </c>
@@ -3509,8 +3671,11 @@
       <c r="E41" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F41" s="3" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>86</v>
       </c>
@@ -3526,8 +3691,11 @@
       <c r="E42" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F42" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>86</v>
       </c>
@@ -3543,8 +3711,11 @@
       <c r="E43" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F43" s="3" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>86</v>
       </c>
@@ -3560,8 +3731,11 @@
       <c r="E44" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F44" s="3" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>86</v>
       </c>
@@ -3577,8 +3751,11 @@
       <c r="E45" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F45" s="3" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>86</v>
       </c>
@@ -3594,8 +3771,11 @@
       <c r="E46" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F46" s="3" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>86</v>
       </c>
@@ -3611,8 +3791,11 @@
       <c r="E47" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F47" s="3" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>86</v>
       </c>
@@ -3628,8 +3811,11 @@
       <c r="E48" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F48" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>86</v>
       </c>
@@ -3645,8 +3831,11 @@
       <c r="E49" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F49" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>86</v>
       </c>
@@ -3662,8 +3851,11 @@
       <c r="E50" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F50" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>86</v>
       </c>
@@ -3679,8 +3871,11 @@
       <c r="E51" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F51" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>86</v>
       </c>
@@ -3696,8 +3891,11 @@
       <c r="E52" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F52" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>86</v>
       </c>
@@ -3713,8 +3911,11 @@
       <c r="E53" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F53" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>86</v>
       </c>
@@ -3730,8 +3931,11 @@
       <c r="E54" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F54" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>86</v>
       </c>
@@ -3747,8 +3951,11 @@
       <c r="E55" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F55" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>86</v>
       </c>
@@ -3764,8 +3971,11 @@
       <c r="E56" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F56" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>86</v>
       </c>
@@ -3781,8 +3991,11 @@
       <c r="E57" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F57" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>86</v>
       </c>
@@ -3798,8 +4011,11 @@
       <c r="E58" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F58" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>86</v>
       </c>
@@ -3815,8 +4031,11 @@
       <c r="E59" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F59" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>86</v>
       </c>
@@ -3832,8 +4051,11 @@
       <c r="E60" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F60" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>86</v>
       </c>
@@ -3849,8 +4071,11 @@
       <c r="E61" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F61" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>86</v>
       </c>
@@ -3866,8 +4091,11 @@
       <c r="E62" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F62" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>86</v>
       </c>
@@ -3883,8 +4111,11 @@
       <c r="E63" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F63" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>86</v>
       </c>
@@ -3900,8 +4131,11 @@
       <c r="E64" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F64" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>86</v>
       </c>
@@ -3917,8 +4151,11 @@
       <c r="E65" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F65" s="3" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>86</v>
       </c>
@@ -3934,15 +4171,18 @@
       <c r="E66" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F66" s="3" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>86</v>
       </c>
       <c r="B67" t="s">
         <v>98</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C67" s="1" t="s">
         <v>147</v>
       </c>
       <c r="D67" t="s">
@@ -3951,8 +4191,11 @@
       <c r="E67" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F67" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>86</v>
       </c>
@@ -3968,8 +4211,11 @@
       <c r="E68" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F68" s="3" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>86</v>
       </c>
@@ -3985,8 +4231,11 @@
       <c r="E69" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F69" s="3" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>86</v>
       </c>
@@ -4002,8 +4251,11 @@
       <c r="E70" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F70" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>86</v>
       </c>
@@ -4019,8 +4271,11 @@
       <c r="E71" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F71" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>86</v>
       </c>
@@ -4036,8 +4291,11 @@
       <c r="E72" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F72" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>86</v>
       </c>
@@ -4053,8 +4311,11 @@
       <c r="E73" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F73" s="3" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>86</v>
       </c>
@@ -4070,15 +4331,18 @@
       <c r="E74" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F74" s="3" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>86</v>
       </c>
       <c r="B75" t="s">
         <v>164</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C75" s="1" t="s">
         <v>165</v>
       </c>
       <c r="D75" t="s">
@@ -4087,8 +4351,11 @@
       <c r="E75" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F75" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>86</v>
       </c>
@@ -4104,8 +4371,11 @@
       <c r="E76" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F76" s="3" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>86</v>
       </c>
@@ -4121,8 +4391,11 @@
       <c r="E77" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F77" s="3" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>86</v>
       </c>
@@ -4138,8 +4411,11 @@
       <c r="E78" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F78" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>86</v>
       </c>
@@ -4155,8 +4431,11 @@
       <c r="E79" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F79" s="3" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>86</v>
       </c>
@@ -4172,8 +4451,11 @@
       <c r="E80" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F80" s="3" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>86</v>
       </c>
@@ -4189,8 +4471,11 @@
       <c r="E81" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F81" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>86</v>
       </c>
@@ -4206,15 +4491,18 @@
       <c r="E82" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F82" s="3" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>86</v>
       </c>
       <c r="B83" t="s">
         <v>181</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C83" s="1" t="s">
         <v>184</v>
       </c>
       <c r="D83" t="s">
@@ -4223,8 +4511,11 @@
       <c r="E83" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F83" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>86</v>
       </c>
@@ -4240,8 +4531,11 @@
       <c r="E84" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F84" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>86</v>
       </c>
@@ -4257,8 +4551,11 @@
       <c r="E85" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F85" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>86</v>
       </c>
@@ -4274,8 +4571,11 @@
       <c r="E86" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F86" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -4291,8 +4591,11 @@
       <c r="E87" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F87" s="3" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>86</v>
       </c>
@@ -4308,15 +4611,18 @@
       <c r="E88" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F88" s="3" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>86</v>
       </c>
       <c r="B89" t="s">
         <v>192</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="C89" s="1" t="s">
         <v>197</v>
       </c>
       <c r="D89" t="s">
@@ -4325,8 +4631,11 @@
       <c r="E89" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F89" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>86</v>
       </c>
@@ -4342,8 +4651,11 @@
       <c r="E90" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F90" s="3" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>86</v>
       </c>
@@ -4359,8 +4671,11 @@
       <c r="E91" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F91" s="3" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>86</v>
       </c>
@@ -4376,8 +4691,11 @@
       <c r="E92" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F92" s="3" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>86</v>
       </c>
@@ -4393,8 +4711,11 @@
       <c r="E93" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F93" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>86</v>
       </c>
@@ -4410,8 +4731,11 @@
       <c r="E94" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F94" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>86</v>
       </c>
@@ -4427,8 +4751,11 @@
       <c r="E95" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F95" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>86</v>
       </c>
@@ -4444,8 +4771,11 @@
       <c r="E96" t="s">
         <v>635</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F96" s="3" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>86</v>
       </c>
@@ -4461,8 +4791,11 @@
       <c r="E97" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F97" s="3" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>86</v>
       </c>
@@ -4478,8 +4811,11 @@
       <c r="E98" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F98" s="3" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>86</v>
       </c>
@@ -4495,8 +4831,11 @@
       <c r="E99" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F99" s="3" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>86</v>
       </c>
@@ -4512,8 +4851,11 @@
       <c r="E100" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F100" s="3" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>86</v>
       </c>
@@ -4529,8 +4871,11 @@
       <c r="E101" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F101" s="3" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>86</v>
       </c>
@@ -4546,8 +4891,11 @@
       <c r="E102" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F102" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>86</v>
       </c>
@@ -4563,15 +4911,18 @@
       <c r="E103" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F103" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>86</v>
       </c>
       <c r="B104" t="s">
         <v>218</v>
       </c>
-      <c r="C104" s="2" t="s">
+      <c r="C104" s="1" t="s">
         <v>229</v>
       </c>
       <c r="D104" t="s">
@@ -4580,8 +4931,11 @@
       <c r="E104" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F104" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>86</v>
       </c>
@@ -4597,8 +4951,11 @@
       <c r="E105" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F105" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>86</v>
       </c>
@@ -4614,15 +4971,18 @@
       <c r="E106" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F106" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>86</v>
       </c>
       <c r="B107" t="s">
         <v>218</v>
       </c>
-      <c r="C107" s="2" t="s">
+      <c r="C107" s="1" t="s">
         <v>235</v>
       </c>
       <c r="D107" t="s">
@@ -4631,8 +4991,11 @@
       <c r="E107" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F107" s="3" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>86</v>
       </c>
@@ -4648,8 +5011,11 @@
       <c r="E108" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F108" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>86</v>
       </c>
@@ -4665,8 +5031,11 @@
       <c r="E109" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F109" s="3" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>86</v>
       </c>
@@ -4682,8 +5051,11 @@
       <c r="E110" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F110" s="3" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>86</v>
       </c>
@@ -4699,8 +5071,11 @@
       <c r="E111" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F111" s="3" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +5091,11 @@
       <c r="E112" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F112" s="3" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>86</v>
       </c>
@@ -4733,8 +5111,11 @@
       <c r="E113" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F113" s="3" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>86</v>
       </c>
@@ -4750,8 +5131,11 @@
       <c r="E114" t="s">
         <v>653</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F114" s="3" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>252</v>
       </c>
@@ -4767,8 +5151,11 @@
       <c r="E115" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F115" s="3" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>252</v>
       </c>
@@ -4784,8 +5171,11 @@
       <c r="E116" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F116" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>252</v>
       </c>
@@ -4801,8 +5191,11 @@
       <c r="E117" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F117" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>252</v>
       </c>
@@ -4818,8 +5211,11 @@
       <c r="E118" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F118" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>252</v>
       </c>
@@ -4835,8 +5231,11 @@
       <c r="E119" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F119" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>252</v>
       </c>
@@ -4852,8 +5251,11 @@
       <c r="E120" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F120" s="3" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>252</v>
       </c>
@@ -4869,8 +5271,11 @@
       <c r="E121" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F121" s="3" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>252</v>
       </c>
@@ -4886,8 +5291,11 @@
       <c r="E122" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F122" s="3" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>252</v>
       </c>
@@ -4903,8 +5311,11 @@
       <c r="E123" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F123" s="3" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>252</v>
       </c>
@@ -4920,8 +5331,11 @@
       <c r="E124" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F124" s="3" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>252</v>
       </c>
@@ -4937,8 +5351,11 @@
       <c r="E125" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F125" s="3" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>252</v>
       </c>
@@ -4954,8 +5371,11 @@
       <c r="E126" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F126" s="3" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>252</v>
       </c>
@@ -4971,8 +5391,11 @@
       <c r="E127" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F127" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>252</v>
       </c>
@@ -4988,8 +5411,11 @@
       <c r="E128" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F128" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>252</v>
       </c>
@@ -5005,8 +5431,11 @@
       <c r="E129" t="s">
         <v>668</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F129" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>252</v>
       </c>
@@ -5022,8 +5451,11 @@
       <c r="E130" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F130" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>252</v>
       </c>
@@ -5039,8 +5471,11 @@
       <c r="E131" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F131" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>252</v>
       </c>
@@ -5056,8 +5491,11 @@
       <c r="E132" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F132" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>252</v>
       </c>
@@ -5073,8 +5511,11 @@
       <c r="E133" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F133" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>252</v>
       </c>
@@ -5090,8 +5531,11 @@
       <c r="E134" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F134" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>252</v>
       </c>
@@ -5107,8 +5551,11 @@
       <c r="E135" t="s">
         <v>674</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F135" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>252</v>
       </c>
@@ -5124,8 +5571,11 @@
       <c r="E136" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F136" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>252</v>
       </c>
@@ -5141,8 +5591,11 @@
       <c r="E137" t="s">
         <v>676</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F137" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>252</v>
       </c>
@@ -5158,8 +5611,11 @@
       <c r="E138" t="s">
         <v>677</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F138" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>252</v>
       </c>
@@ -5175,8 +5631,11 @@
       <c r="E139" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F139" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>252</v>
       </c>
@@ -5192,8 +5651,11 @@
       <c r="E140" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F140" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>252</v>
       </c>
@@ -5209,8 +5671,11 @@
       <c r="E141" t="s">
         <v>680</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F141" s="3" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>252</v>
       </c>
@@ -5226,8 +5691,11 @@
       <c r="E142" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F142" s="3" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>252</v>
       </c>
@@ -5243,8 +5711,11 @@
       <c r="E143" t="s">
         <v>682</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F143" s="3" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>252</v>
       </c>
@@ -5260,8 +5731,11 @@
       <c r="E144" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F144" s="3" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>252</v>
       </c>
@@ -5277,8 +5751,11 @@
       <c r="E145" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F145" s="3" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>252</v>
       </c>
@@ -5294,8 +5771,11 @@
       <c r="E146" t="s">
         <v>685</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F146" s="3" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>252</v>
       </c>
@@ -5311,8 +5791,11 @@
       <c r="E147" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F147" s="3" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>252</v>
       </c>
@@ -5328,8 +5811,11 @@
       <c r="E148" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F148" s="3" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>252</v>
       </c>
@@ -5345,8 +5831,11 @@
       <c r="E149" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F149" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>252</v>
       </c>
@@ -5362,8 +5851,11 @@
       <c r="E150" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F150" s="3" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>252</v>
       </c>
@@ -5379,8 +5871,11 @@
       <c r="E151" t="s">
         <v>690</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F151" s="3" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>252</v>
       </c>
@@ -5396,8 +5891,11 @@
       <c r="E152" t="s">
         <v>691</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F152" s="3" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>252</v>
       </c>
@@ -5413,8 +5911,11 @@
       <c r="E153" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F153" s="3" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>252</v>
       </c>
@@ -5430,8 +5931,11 @@
       <c r="E154" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F154" s="3" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>252</v>
       </c>
@@ -5447,8 +5951,11 @@
       <c r="E155" t="s">
         <v>694</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F155" s="3" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>252</v>
       </c>
@@ -5464,8 +5971,11 @@
       <c r="E156" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F156" s="3" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>252</v>
       </c>
@@ -5481,8 +5991,11 @@
       <c r="E157" t="s">
         <v>696</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F157" s="3" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>252</v>
       </c>
@@ -5498,8 +6011,11 @@
       <c r="E158" t="s">
         <v>697</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F158" s="3" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>252</v>
       </c>
@@ -5515,8 +6031,11 @@
       <c r="E159" t="s">
         <v>698</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F159" s="3" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>252</v>
       </c>
@@ -5532,8 +6051,11 @@
       <c r="E160" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F160" s="3" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>252</v>
       </c>
@@ -5549,8 +6071,11 @@
       <c r="E161" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F161" s="3" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>252</v>
       </c>
@@ -5566,8 +6091,11 @@
       <c r="E162" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F162" s="3" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>252</v>
       </c>
@@ -5583,8 +6111,11 @@
       <c r="E163" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F163" s="3" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>252</v>
       </c>
@@ -5600,8 +6131,11 @@
       <c r="E164" t="s">
         <v>703</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F164" s="3" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>252</v>
       </c>
@@ -5617,8 +6151,11 @@
       <c r="E165" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F165" s="3" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>252</v>
       </c>
@@ -5634,8 +6171,11 @@
       <c r="E166" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F166" s="3" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>252</v>
       </c>
@@ -5651,8 +6191,11 @@
       <c r="E167" t="s">
         <v>706</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F167" s="3" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>252</v>
       </c>
@@ -5668,8 +6211,11 @@
       <c r="E168" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F168" s="3" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>252</v>
       </c>
@@ -5685,8 +6231,11 @@
       <c r="E169" t="s">
         <v>708</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F169" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>252</v>
       </c>
@@ -5702,8 +6251,11 @@
       <c r="E170" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F170" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>252</v>
       </c>
@@ -5719,8 +6271,11 @@
       <c r="E171" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F171" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>252</v>
       </c>
@@ -5736,8 +6291,11 @@
       <c r="E172" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F172" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>252</v>
       </c>
@@ -5753,8 +6311,11 @@
       <c r="E173" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F173" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>252</v>
       </c>
@@ -5770,8 +6331,11 @@
       <c r="E174" t="s">
         <v>713</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F174" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>252</v>
       </c>
@@ -5787,8 +6351,11 @@
       <c r="E175" t="s">
         <v>714</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F175" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>252</v>
       </c>
@@ -5804,8 +6371,11 @@
       <c r="E176" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F176" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>252</v>
       </c>
@@ -5821,8 +6391,11 @@
       <c r="E177" t="s">
         <v>716</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F177" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>252</v>
       </c>
@@ -5838,8 +6411,11 @@
       <c r="E178" t="s">
         <v>717</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F178" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>252</v>
       </c>
@@ -5855,8 +6431,11 @@
       <c r="E179" t="s">
         <v>718</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F179" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>252</v>
       </c>
@@ -5872,8 +6451,11 @@
       <c r="E180" t="s">
         <v>719</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F180" s="3" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>252</v>
       </c>
@@ -5889,8 +6471,11 @@
       <c r="E181" t="s">
         <v>720</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F181" s="3" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>252</v>
       </c>
@@ -5906,8 +6491,11 @@
       <c r="E182" t="s">
         <v>721</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F182" s="3" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>252</v>
       </c>
@@ -5923,8 +6511,11 @@
       <c r="E183" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F183" s="3" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>252</v>
       </c>
@@ -5940,8 +6531,11 @@
       <c r="E184" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F184" s="3" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>252</v>
       </c>
@@ -5957,8 +6551,11 @@
       <c r="E185" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F185" s="3" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>252</v>
       </c>
@@ -5974,8 +6571,11 @@
       <c r="E186" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F186" s="3" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>252</v>
       </c>
@@ -5991,15 +6591,18 @@
       <c r="E187" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F187" s="3" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>252</v>
       </c>
       <c r="B188" t="s">
         <v>403</v>
       </c>
-      <c r="C188" s="2" t="s">
+      <c r="C188" s="1" t="s">
         <v>404</v>
       </c>
       <c r="D188" t="s">
@@ -6008,8 +6611,11 @@
       <c r="E188" t="s">
         <v>727</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F188" s="3" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>252</v>
       </c>
@@ -6025,8 +6631,11 @@
       <c r="E189" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F189" s="3" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>252</v>
       </c>
@@ -6042,15 +6651,18 @@
       <c r="E190" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F190" s="3" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>252</v>
       </c>
       <c r="B191" t="s">
         <v>403</v>
       </c>
-      <c r="C191" s="2" t="s">
+      <c r="C191" s="1" t="s">
         <v>410</v>
       </c>
       <c r="D191" t="s">
@@ -6059,15 +6671,18 @@
       <c r="E191" t="s">
         <v>730</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F191" s="3" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>252</v>
       </c>
       <c r="B192" t="s">
         <v>403</v>
       </c>
-      <c r="C192" s="2" t="s">
+      <c r="C192" s="1" t="s">
         <v>412</v>
       </c>
       <c r="D192" t="s">
@@ -6076,8 +6691,11 @@
       <c r="E192" t="s">
         <v>731</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F192" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>252</v>
       </c>
@@ -6093,8 +6711,11 @@
       <c r="E193" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F193" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>252</v>
       </c>
@@ -6110,8 +6731,11 @@
       <c r="E194" t="s">
         <v>733</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F194" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>252</v>
       </c>
@@ -6127,8 +6751,11 @@
       <c r="E195" t="s">
         <v>734</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F195" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>252</v>
       </c>
@@ -6144,8 +6771,11 @@
       <c r="E196" t="s">
         <v>735</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F196" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>252</v>
       </c>
@@ -6161,8 +6791,11 @@
       <c r="E197" t="s">
         <v>736</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F197" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>252</v>
       </c>
@@ -6178,8 +6811,11 @@
       <c r="E198" t="s">
         <v>737</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F198" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>252</v>
       </c>
@@ -6195,8 +6831,11 @@
       <c r="E199" t="s">
         <v>738</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F199" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>252</v>
       </c>
@@ -6212,8 +6851,11 @@
       <c r="E200" t="s">
         <v>739</v>
       </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F200" s="3" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>252</v>
       </c>
@@ -6229,8 +6871,11 @@
       <c r="E201" t="s">
         <v>740</v>
       </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F201" s="3" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>252</v>
       </c>
@@ -6246,8 +6891,11 @@
       <c r="E202" t="s">
         <v>741</v>
       </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F202" s="3" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>252</v>
       </c>
@@ -6263,8 +6911,11 @@
       <c r="E203" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F203" s="3" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>252</v>
       </c>
@@ -6280,8 +6931,11 @@
       <c r="E204" t="s">
         <v>743</v>
       </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F204" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>252</v>
       </c>
@@ -6297,8 +6951,11 @@
       <c r="E205" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F205" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>252</v>
       </c>
@@ -6314,8 +6971,11 @@
       <c r="E206" t="s">
         <v>745</v>
       </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F206" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>252</v>
       </c>
@@ -6331,8 +6991,11 @@
       <c r="E207" t="s">
         <v>746</v>
       </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F207" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>252</v>
       </c>
@@ -6348,8 +7011,11 @@
       <c r="E208" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F208" s="3" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>252</v>
       </c>
@@ -6365,8 +7031,11 @@
       <c r="E209" t="s">
         <v>748</v>
       </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F209" s="3" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>252</v>
       </c>
@@ -6382,8 +7051,11 @@
       <c r="E210" t="s">
         <v>749</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F210" s="3" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>252</v>
       </c>
@@ -6399,15 +7071,18 @@
       <c r="E211" t="s">
         <v>750</v>
       </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F211" s="3" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>252</v>
       </c>
       <c r="B212" t="s">
         <v>430</v>
       </c>
-      <c r="C212" s="2" t="s">
+      <c r="C212" s="1" t="s">
         <v>453</v>
       </c>
       <c r="D212" t="s">
@@ -6416,8 +7091,9 @@
       <c r="E212" t="s">
         <v>751</v>
       </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F212" s="5"/>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>252</v>
       </c>
@@ -6433,8 +7109,11 @@
       <c r="E213" t="s">
         <v>752</v>
       </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F213" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>252</v>
       </c>
@@ -6450,8 +7129,11 @@
       <c r="E214" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F214" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>252</v>
       </c>
@@ -6467,8 +7149,11 @@
       <c r="E215" t="s">
         <v>754</v>
       </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F215" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>252</v>
       </c>
@@ -6484,8 +7169,11 @@
       <c r="E216" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F216" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>252</v>
       </c>
@@ -6501,8 +7189,11 @@
       <c r="E217" t="s">
         <v>756</v>
       </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F217" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>252</v>
       </c>
@@ -6518,8 +7209,11 @@
       <c r="E218" t="s">
         <v>757</v>
       </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F218" s="3" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>252</v>
       </c>
@@ -6535,8 +7229,11 @@
       <c r="E219" t="s">
         <v>758</v>
       </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F219" s="3" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>252</v>
       </c>
@@ -6552,8 +7249,11 @@
       <c r="E220" t="s">
         <v>759</v>
       </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F220" s="3" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>252</v>
       </c>
@@ -6569,8 +7269,11 @@
       <c r="E221" t="s">
         <v>760</v>
       </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F221" s="3" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>252</v>
       </c>
@@ -6586,8 +7289,11 @@
       <c r="E222" t="s">
         <v>761</v>
       </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F222" s="3" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>252</v>
       </c>
@@ -6603,8 +7309,11 @@
       <c r="E223" t="s">
         <v>762</v>
       </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F223" s="3" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>252</v>
       </c>
@@ -6620,8 +7329,11 @@
       <c r="E224" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F224" s="3" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>252</v>
       </c>
@@ -6637,8 +7349,11 @@
       <c r="E225" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F225" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>252</v>
       </c>
@@ -6654,8 +7369,11 @@
       <c r="E226" t="s">
         <v>765</v>
       </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F226" s="3" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>252</v>
       </c>
@@ -6671,8 +7389,11 @@
       <c r="E227" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F227" s="3" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>252</v>
       </c>
@@ -6688,15 +7409,18 @@
       <c r="E228" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F228" s="3" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>252</v>
       </c>
       <c r="B229" t="s">
         <v>485</v>
       </c>
-      <c r="C229" s="2" t="s">
+      <c r="C229" s="1" t="s">
         <v>488</v>
       </c>
       <c r="D229" t="s">
@@ -6705,8 +7429,11 @@
       <c r="E229" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F229" s="3" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>252</v>
       </c>
@@ -6722,8 +7449,11 @@
       <c r="E230" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F230" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>252</v>
       </c>
@@ -6739,15 +7469,18 @@
       <c r="E231" t="s">
         <v>770</v>
       </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F231" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>252</v>
       </c>
       <c r="B232" t="s">
         <v>485</v>
       </c>
-      <c r="C232" s="2" t="s">
+      <c r="C232" s="1" t="s">
         <v>494</v>
       </c>
       <c r="D232" t="s">
@@ -6756,15 +7489,18 @@
       <c r="E232" t="s">
         <v>771</v>
       </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F232" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>252</v>
       </c>
       <c r="B233" t="s">
         <v>496</v>
       </c>
-      <c r="C233" s="2" t="s">
+      <c r="C233" s="1" t="s">
         <v>497</v>
       </c>
       <c r="D233" t="s">
@@ -6773,8 +7509,11 @@
       <c r="E233" t="s">
         <v>772</v>
       </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F233" s="3" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>252</v>
       </c>
@@ -6790,8 +7529,11 @@
       <c r="E234" t="s">
         <v>773</v>
       </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F234" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>252</v>
       </c>
@@ -6807,8 +7549,11 @@
       <c r="E235" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F235" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>252</v>
       </c>
@@ -6824,8 +7569,11 @@
       <c r="E236" t="s">
         <v>775</v>
       </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F236" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>252</v>
       </c>
@@ -6841,8 +7589,11 @@
       <c r="E237" t="s">
         <v>776</v>
       </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F237" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>252</v>
       </c>
@@ -6858,8 +7609,11 @@
       <c r="E238" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F238" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>252</v>
       </c>
@@ -6875,8 +7629,11 @@
       <c r="E239" t="s">
         <v>778</v>
       </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F239" s="3" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>252</v>
       </c>
@@ -6892,8 +7649,11 @@
       <c r="E240" t="s">
         <v>779</v>
       </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F240" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>252</v>
       </c>
@@ -6909,8 +7669,11 @@
       <c r="E241" t="s">
         <v>780</v>
       </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F241" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>252</v>
       </c>
@@ -6926,15 +7689,18 @@
       <c r="E242" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F242" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>252</v>
       </c>
       <c r="B243" t="s">
         <v>496</v>
       </c>
-      <c r="C243" s="2" t="s">
+      <c r="C243" s="1" t="s">
         <v>517</v>
       </c>
       <c r="D243" t="s">
@@ -6943,8 +7709,11 @@
       <c r="E243" t="s">
         <v>782</v>
       </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F243" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>252</v>
       </c>
@@ -6960,8 +7729,11 @@
       <c r="E244" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F244" s="3" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>252</v>
       </c>
@@ -6977,8 +7749,11 @@
       <c r="E245" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F245" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>252</v>
       </c>
@@ -6994,8 +7769,11 @@
       <c r="E246" t="s">
         <v>785</v>
       </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F246" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>252</v>
       </c>
@@ -7011,8 +7789,11 @@
       <c r="E247" t="s">
         <v>786</v>
       </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F247" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>252</v>
       </c>
@@ -7028,8 +7809,11 @@
       <c r="E248" t="s">
         <v>787</v>
       </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F248" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>252</v>
       </c>
@@ -7045,8 +7829,11 @@
       <c r="E249" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F249" s="3" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>252</v>
       </c>
@@ -7062,8 +7849,11 @@
       <c r="E250" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F250" s="3" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>252</v>
       </c>
@@ -7079,8 +7869,11 @@
       <c r="E251" t="s">
         <v>790</v>
       </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F251" s="3" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>252</v>
       </c>
@@ -7096,8 +7889,11 @@
       <c r="E252" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F252" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>252</v>
       </c>
@@ -7112,6 +7908,9 @@
       </c>
       <c r="E253" t="s">
         <v>792</v>
+      </c>
+      <c r="F253" s="3" t="s">
+        <v>797</v>
       </c>
     </row>
   </sheetData>

--- a/vr_data.xlsx
+++ b/vr_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\vr_map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72FA93A7-DBD8-45B2-BD3A-8CC11B8DC9CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E90ABFFA-A65F-4276-8527-4C1AA2646230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{E19A63D7-6486-4FFD-AEFB-F3DEF9740B08}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1517" uniqueCount="800">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1518" uniqueCount="801">
   <si>
     <t>城市</t>
   </si>
@@ -2436,6 +2436,10 @@
   </si>
   <si>
     <t>保护级别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2508,23 +2512,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2843,8 +2844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6778EFFD-5E7D-4914-A20B-29D922EDC285}">
   <dimension ref="A1:F253"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="F212" sqref="F212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2852,7 +2853,6 @@
     <col min="3" max="3" width="31.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="39" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="50.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -2871,7 +2871,7 @@
       <c r="E1" t="s">
         <v>541</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>799</v>
       </c>
     </row>
@@ -2891,7 +2891,7 @@
       <c r="E2" t="s">
         <v>542</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>794</v>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       <c r="E3" t="s">
         <v>543</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>795</v>
       </c>
     </row>
@@ -2931,7 +2931,7 @@
       <c r="E4" t="s">
         <v>544</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>794</v>
       </c>
     </row>
@@ -2951,7 +2951,7 @@
       <c r="E5" t="s">
         <v>545</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>796</v>
       </c>
     </row>
@@ -2971,7 +2971,7 @@
       <c r="E6" t="s">
         <v>546</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>797</v>
       </c>
     </row>
@@ -2991,7 +2991,7 @@
       <c r="E7" t="s">
         <v>793</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>795</v>
       </c>
     </row>
@@ -3011,7 +3011,7 @@
       <c r="E8" t="s">
         <v>547</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>797</v>
       </c>
     </row>
@@ -3031,7 +3031,7 @@
       <c r="E9" t="s">
         <v>548</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>794</v>
       </c>
     </row>
@@ -3051,7 +3051,7 @@
       <c r="E10" t="s">
         <v>549</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>798</v>
       </c>
     </row>
@@ -3071,7 +3071,7 @@
       <c r="E11" t="s">
         <v>550</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>798</v>
       </c>
     </row>
@@ -3091,7 +3091,7 @@
       <c r="E12" t="s">
         <v>551</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="2" t="s">
         <v>796</v>
       </c>
     </row>
@@ -3111,7 +3111,7 @@
       <c r="E13" t="s">
         <v>552</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="2" t="s">
         <v>797</v>
       </c>
     </row>
@@ -3131,7 +3131,7 @@
       <c r="E14" t="s">
         <v>553</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="3" t="s">
         <v>796</v>
       </c>
     </row>
@@ -3151,7 +3151,7 @@
       <c r="E15" t="s">
         <v>554</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="2" t="s">
         <v>798</v>
       </c>
     </row>
@@ -3171,7 +3171,7 @@
       <c r="E16" t="s">
         <v>555</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="2" t="s">
         <v>794</v>
       </c>
     </row>
@@ -3191,7 +3191,7 @@
       <c r="E17" t="s">
         <v>556</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="2" t="s">
         <v>794</v>
       </c>
     </row>
@@ -3211,7 +3211,7 @@
       <c r="E18" t="s">
         <v>557</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="2" t="s">
         <v>794</v>
       </c>
     </row>
@@ -3231,7 +3231,7 @@
       <c r="E19" t="s">
         <v>558</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="2" t="s">
         <v>798</v>
       </c>
     </row>
@@ -3251,7 +3251,7 @@
       <c r="E20" t="s">
         <v>559</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="2" t="s">
         <v>798</v>
       </c>
     </row>
@@ -3271,7 +3271,7 @@
       <c r="E21" t="s">
         <v>560</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="2" t="s">
         <v>798</v>
       </c>
     </row>
@@ -3291,7 +3291,7 @@
       <c r="E22" t="s">
         <v>561</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="2" t="s">
         <v>798</v>
       </c>
     </row>
@@ -3311,7 +3311,7 @@
       <c r="E23" t="s">
         <v>562</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="2" t="s">
         <v>798</v>
       </c>
     </row>
@@ -3331,7 +3331,7 @@
       <c r="E24" t="s">
         <v>563</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="2" t="s">
         <v>798</v>
       </c>
     </row>
@@ -3351,7 +3351,7 @@
       <c r="E25" t="s">
         <v>564</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="2" t="s">
         <v>798</v>
       </c>
     </row>
@@ -3371,7 +3371,7 @@
       <c r="E26" t="s">
         <v>565</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="2" t="s">
         <v>796</v>
       </c>
     </row>
@@ -3391,7 +3391,7 @@
       <c r="E27" t="s">
         <v>566</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="2" t="s">
         <v>796</v>
       </c>
     </row>
@@ -3411,7 +3411,7 @@
       <c r="E28" t="s">
         <v>567</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="2" t="s">
         <v>795</v>
       </c>
     </row>
@@ -3431,7 +3431,7 @@
       <c r="E29" t="s">
         <v>568</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="2" t="s">
         <v>798</v>
       </c>
     </row>
@@ -3451,7 +3451,7 @@
       <c r="E30" t="s">
         <v>569</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F30" s="2" t="s">
         <v>796</v>
       </c>
     </row>
@@ -3471,7 +3471,7 @@
       <c r="E31" t="s">
         <v>570</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F31" s="2" t="s">
         <v>794</v>
       </c>
     </row>
@@ -3491,7 +3491,7 @@
       <c r="E32" t="s">
         <v>571</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F32" s="2" t="s">
         <v>794</v>
       </c>
     </row>
@@ -3511,7 +3511,7 @@
       <c r="E33" t="s">
         <v>572</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="F33" s="2" t="s">
         <v>794</v>
       </c>
     </row>
@@ -3531,7 +3531,7 @@
       <c r="E34" t="s">
         <v>573</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F34" s="2" t="s">
         <v>794</v>
       </c>
     </row>
@@ -3551,7 +3551,7 @@
       <c r="E35" t="s">
         <v>574</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="F35" s="2" t="s">
         <v>798</v>
       </c>
     </row>
@@ -3571,7 +3571,7 @@
       <c r="E36" t="s">
         <v>575</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="F36" s="2" t="s">
         <v>797</v>
       </c>
     </row>
@@ -3591,7 +3591,7 @@
       <c r="E37" t="s">
         <v>576</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="F37" s="2" t="s">
         <v>794</v>
       </c>
     </row>
@@ -3611,7 +3611,7 @@
       <c r="E38" t="s">
         <v>577</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="F38" s="2" t="s">
         <v>794</v>
       </c>
     </row>
@@ -3631,7 +3631,7 @@
       <c r="E39" t="s">
         <v>578</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="F39" s="2" t="s">
         <v>794</v>
       </c>
     </row>
@@ -3651,7 +3651,7 @@
       <c r="E40" t="s">
         <v>579</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="F40" s="2" t="s">
         <v>797</v>
       </c>
     </row>
@@ -3671,7 +3671,7 @@
       <c r="E41" t="s">
         <v>580</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="F41" s="2" t="s">
         <v>796</v>
       </c>
     </row>
@@ -3691,7 +3691,7 @@
       <c r="E42" t="s">
         <v>581</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="F42" s="2" t="s">
         <v>795</v>
       </c>
     </row>
@@ -3711,7 +3711,7 @@
       <c r="E43" t="s">
         <v>582</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="F43" s="2" t="s">
         <v>794</v>
       </c>
     </row>
@@ -3731,7 +3731,7 @@
       <c r="E44" t="s">
         <v>583</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="F44" s="2" t="s">
         <v>794</v>
       </c>
     </row>
@@ -3751,7 +3751,7 @@
       <c r="E45" t="s">
         <v>584</v>
       </c>
-      <c r="F45" s="3" t="s">
+      <c r="F45" s="2" t="s">
         <v>794</v>
       </c>
     </row>
@@ -3771,7 +3771,7 @@
       <c r="E46" t="s">
         <v>585</v>
       </c>
-      <c r="F46" s="3" t="s">
+      <c r="F46" s="2" t="s">
         <v>794</v>
       </c>
     </row>
@@ -3791,7 +3791,7 @@
       <c r="E47" t="s">
         <v>586</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="F47" s="2" t="s">
         <v>794</v>
       </c>
     </row>
@@ -3811,7 +3811,7 @@
       <c r="E48" t="s">
         <v>587</v>
       </c>
-      <c r="F48" s="3" t="s">
+      <c r="F48" s="2" t="s">
         <v>798</v>
       </c>
     </row>
@@ -3831,7 +3831,7 @@
       <c r="E49" t="s">
         <v>588</v>
       </c>
-      <c r="F49" s="3" t="s">
+      <c r="F49" s="2" t="s">
         <v>798</v>
       </c>
     </row>
@@ -3851,7 +3851,7 @@
       <c r="E50" t="s">
         <v>589</v>
       </c>
-      <c r="F50" s="3" t="s">
+      <c r="F50" s="2" t="s">
         <v>798</v>
       </c>
     </row>
@@ -3871,7 +3871,7 @@
       <c r="E51" t="s">
         <v>590</v>
       </c>
-      <c r="F51" s="3" t="s">
+      <c r="F51" s="2" t="s">
         <v>798</v>
       </c>
     </row>
@@ -3891,7 +3891,7 @@
       <c r="E52" t="s">
         <v>591</v>
       </c>
-      <c r="F52" s="3" t="s">
+      <c r="F52" s="2" t="s">
         <v>798</v>
       </c>
     </row>
@@ -3911,7 +3911,7 @@
       <c r="E53" t="s">
         <v>592</v>
       </c>
-      <c r="F53" s="3" t="s">
+      <c r="F53" s="2" t="s">
         <v>798</v>
       </c>
     </row>
@@ -3931,7 +3931,7 @@
       <c r="E54" t="s">
         <v>593</v>
       </c>
-      <c r="F54" s="3" t="s">
+      <c r="F54" s="2" t="s">
         <v>798</v>
       </c>
     </row>
@@ -3951,7 +3951,7 @@
       <c r="E55" t="s">
         <v>594</v>
       </c>
-      <c r="F55" s="3" t="s">
+      <c r="F55" s="2" t="s">
         <v>798</v>
       </c>
     </row>
@@ -3971,7 +3971,7 @@
       <c r="E56" t="s">
         <v>595</v>
       </c>
-      <c r="F56" s="3" t="s">
+      <c r="F56" s="2" t="s">
         <v>798</v>
       </c>
     </row>
@@ -3991,7 +3991,7 @@
       <c r="E57" t="s">
         <v>596</v>
       </c>
-      <c r="F57" s="3" t="s">
+      <c r="F57" s="2" t="s">
         <v>798</v>
       </c>
     </row>
@@ -4011,7 +4011,7 @@
       <c r="E58" t="s">
         <v>597</v>
       </c>
-      <c r="F58" s="3" t="s">
+      <c r="F58" s="2" t="s">
         <v>798</v>
       </c>
     </row>
@@ -4031,7 +4031,7 @@
       <c r="E59" t="s">
         <v>598</v>
       </c>
-      <c r="F59" s="3" t="s">
+      <c r="F59" s="2" t="s">
         <v>798</v>
       </c>
     </row>
@@ -4051,7 +4051,7 @@
       <c r="E60" t="s">
         <v>599</v>
       </c>
-      <c r="F60" s="3" t="s">
+      <c r="F60" s="2" t="s">
         <v>798</v>
       </c>
     </row>
@@ -4071,7 +4071,7 @@
       <c r="E61" t="s">
         <v>600</v>
       </c>
-      <c r="F61" s="3" t="s">
+      <c r="F61" s="2" t="s">
         <v>798</v>
       </c>
     </row>
@@ -4091,7 +4091,7 @@
       <c r="E62" t="s">
         <v>601</v>
       </c>
-      <c r="F62" s="3" t="s">
+      <c r="F62" s="2" t="s">
         <v>798</v>
       </c>
     </row>
@@ -4111,7 +4111,7 @@
       <c r="E63" t="s">
         <v>602</v>
       </c>
-      <c r="F63" s="3" t="s">
+      <c r="F63" s="2" t="s">
         <v>798</v>
       </c>
     </row>
@@ -4131,7 +4131,7 @@
       <c r="E64" t="s">
         <v>603</v>
       </c>
-      <c r="F64" s="3" t="s">
+      <c r="F64" s="2" t="s">
         <v>795</v>
       </c>
     </row>
@@ -4151,7 +4151,7 @@
       <c r="E65" t="s">
         <v>604</v>
       </c>
-      <c r="F65" s="3" t="s">
+      <c r="F65" s="2" t="s">
         <v>796</v>
       </c>
     </row>
@@ -4171,7 +4171,7 @@
       <c r="E66" t="s">
         <v>605</v>
       </c>
-      <c r="F66" s="3" t="s">
+      <c r="F66" s="2" t="s">
         <v>797</v>
       </c>
     </row>
@@ -4191,7 +4191,7 @@
       <c r="E67" t="s">
         <v>606</v>
       </c>
-      <c r="F67" s="3" t="s">
+      <c r="F67" s="2" t="s">
         <v>795</v>
       </c>
     </row>
@@ -4211,7 +4211,7 @@
       <c r="E68" t="s">
         <v>607</v>
       </c>
-      <c r="F68" s="3" t="s">
+      <c r="F68" s="2" t="s">
         <v>794</v>
       </c>
     </row>
@@ -4231,7 +4231,7 @@
       <c r="E69" t="s">
         <v>608</v>
       </c>
-      <c r="F69" s="3" t="s">
+      <c r="F69" s="2" t="s">
         <v>794</v>
       </c>
     </row>
@@ -4251,7 +4251,7 @@
       <c r="E70" t="s">
         <v>609</v>
       </c>
-      <c r="F70" s="3" t="s">
+      <c r="F70" s="2" t="s">
         <v>798</v>
       </c>
     </row>
@@ -4271,7 +4271,7 @@
       <c r="E71" t="s">
         <v>610</v>
       </c>
-      <c r="F71" s="3" t="s">
+      <c r="F71" s="2" t="s">
         <v>798</v>
       </c>
     </row>
@@ -4291,7 +4291,7 @@
       <c r="E72" t="s">
         <v>611</v>
       </c>
-      <c r="F72" s="3" t="s">
+      <c r="F72" s="2" t="s">
         <v>798</v>
       </c>
     </row>
@@ -4311,7 +4311,7 @@
       <c r="E73" t="s">
         <v>612</v>
       </c>
-      <c r="F73" s="3" t="s">
+      <c r="F73" s="2" t="s">
         <v>796</v>
       </c>
     </row>
@@ -4331,7 +4331,7 @@
       <c r="E74" t="s">
         <v>613</v>
       </c>
-      <c r="F74" s="3" t="s">
+      <c r="F74" s="2" t="s">
         <v>796</v>
       </c>
     </row>
@@ -4351,7 +4351,7 @@
       <c r="E75" t="s">
         <v>614</v>
       </c>
-      <c r="F75" s="3" t="s">
+      <c r="F75" s="2" t="s">
         <v>798</v>
       </c>
     </row>
@@ -4371,7 +4371,7 @@
       <c r="E76" t="s">
         <v>615</v>
       </c>
-      <c r="F76" s="3" t="s">
+      <c r="F76" s="2" t="s">
         <v>794</v>
       </c>
     </row>
@@ -4391,7 +4391,7 @@
       <c r="E77" t="s">
         <v>616</v>
       </c>
-      <c r="F77" s="3" t="s">
+      <c r="F77" s="2" t="s">
         <v>794</v>
       </c>
     </row>
@@ -4411,7 +4411,7 @@
       <c r="E78" t="s">
         <v>617</v>
       </c>
-      <c r="F78" s="3" t="s">
+      <c r="F78" s="2" t="s">
         <v>798</v>
       </c>
     </row>
@@ -4431,7 +4431,7 @@
       <c r="E79" t="s">
         <v>618</v>
       </c>
-      <c r="F79" s="3" t="s">
+      <c r="F79" s="2" t="s">
         <v>797</v>
       </c>
     </row>
@@ -4451,7 +4451,7 @@
       <c r="E80" t="s">
         <v>619</v>
       </c>
-      <c r="F80" s="3" t="s">
+      <c r="F80" s="2" t="s">
         <v>794</v>
       </c>
     </row>
@@ -4471,7 +4471,7 @@
       <c r="E81" t="s">
         <v>620</v>
       </c>
-      <c r="F81" s="3" t="s">
+      <c r="F81" s="2" t="s">
         <v>798</v>
       </c>
     </row>
@@ -4491,7 +4491,7 @@
       <c r="E82" t="s">
         <v>621</v>
       </c>
-      <c r="F82" s="3" t="s">
+      <c r="F82" s="2" t="s">
         <v>794</v>
       </c>
     </row>
@@ -4511,7 +4511,7 @@
       <c r="E83" t="s">
         <v>622</v>
       </c>
-      <c r="F83" s="3" t="s">
+      <c r="F83" s="2" t="s">
         <v>798</v>
       </c>
     </row>
@@ -4531,7 +4531,7 @@
       <c r="E84" t="s">
         <v>623</v>
       </c>
-      <c r="F84" s="3" t="s">
+      <c r="F84" s="2" t="s">
         <v>798</v>
       </c>
     </row>
@@ -4551,7 +4551,7 @@
       <c r="E85" t="s">
         <v>624</v>
       </c>
-      <c r="F85" s="3" t="s">
+      <c r="F85" s="2" t="s">
         <v>798</v>
       </c>
     </row>
@@ -4571,7 +4571,7 @@
       <c r="E86" t="s">
         <v>625</v>
       </c>
-      <c r="F86" s="3" t="s">
+      <c r="F86" s="2" t="s">
         <v>798</v>
       </c>
     </row>
@@ -4591,7 +4591,7 @@
       <c r="E87" t="s">
         <v>626</v>
       </c>
-      <c r="F87" s="3" t="s">
+      <c r="F87" s="2" t="s">
         <v>794</v>
       </c>
     </row>
@@ -4611,7 +4611,7 @@
       <c r="E88" t="s">
         <v>627</v>
       </c>
-      <c r="F88" s="3" t="s">
+      <c r="F88" s="2" t="s">
         <v>794</v>
       </c>
     </row>
@@ -4631,7 +4631,7 @@
       <c r="E89" t="s">
         <v>628</v>
       </c>
-      <c r="F89" s="3" t="s">
+      <c r="F89" s="2" t="s">
         <v>798</v>
       </c>
     </row>
@@ -4651,7 +4651,7 @@
       <c r="E90" t="s">
         <v>629</v>
       </c>
-      <c r="F90" s="3" t="s">
+      <c r="F90" s="2" t="s">
         <v>797</v>
       </c>
     </row>
@@ -4671,7 +4671,7 @@
       <c r="E91" t="s">
         <v>630</v>
       </c>
-      <c r="F91" s="3" t="s">
+      <c r="F91" s="2" t="s">
         <v>794</v>
       </c>
     </row>
@@ -4691,7 +4691,7 @@
       <c r="E92" t="s">
         <v>631</v>
       </c>
-      <c r="F92" s="3" t="s">
+      <c r="F92" s="2" t="s">
         <v>794</v>
       </c>
     </row>
@@ -4711,7 +4711,7 @@
       <c r="E93" t="s">
         <v>632</v>
       </c>
-      <c r="F93" s="3" t="s">
+      <c r="F93" s="2" t="s">
         <v>798</v>
       </c>
     </row>
@@ -4731,7 +4731,7 @@
       <c r="E94" t="s">
         <v>633</v>
       </c>
-      <c r="F94" s="3" t="s">
+      <c r="F94" s="2" t="s">
         <v>798</v>
       </c>
     </row>
@@ -4751,7 +4751,7 @@
       <c r="E95" t="s">
         <v>634</v>
       </c>
-      <c r="F95" s="3" t="s">
+      <c r="F95" s="2" t="s">
         <v>798</v>
       </c>
     </row>
@@ -4771,7 +4771,7 @@
       <c r="E96" t="s">
         <v>635</v>
       </c>
-      <c r="F96" s="3" t="s">
+      <c r="F96" s="2" t="s">
         <v>796</v>
       </c>
     </row>
@@ -4791,7 +4791,7 @@
       <c r="E97" t="s">
         <v>636</v>
       </c>
-      <c r="F97" s="3" t="s">
+      <c r="F97" s="2" t="s">
         <v>797</v>
       </c>
     </row>
@@ -4811,7 +4811,7 @@
       <c r="E98" t="s">
         <v>637</v>
       </c>
-      <c r="F98" s="3" t="s">
+      <c r="F98" s="2" t="s">
         <v>797</v>
       </c>
     </row>
@@ -4831,7 +4831,7 @@
       <c r="E99" t="s">
         <v>638</v>
       </c>
-      <c r="F99" s="3" t="s">
+      <c r="F99" s="2" t="s">
         <v>794</v>
       </c>
     </row>
@@ -4851,7 +4851,7 @@
       <c r="E100" t="s">
         <v>639</v>
       </c>
-      <c r="F100" s="3" t="s">
+      <c r="F100" s="2" t="s">
         <v>794</v>
       </c>
     </row>
@@ -4871,7 +4871,7 @@
       <c r="E101" t="s">
         <v>640</v>
       </c>
-      <c r="F101" s="3" t="s">
+      <c r="F101" s="2" t="s">
         <v>794</v>
       </c>
     </row>
@@ -4891,7 +4891,7 @@
       <c r="E102" t="s">
         <v>641</v>
       </c>
-      <c r="F102" s="3" t="s">
+      <c r="F102" s="2" t="s">
         <v>798</v>
       </c>
     </row>
@@ -4911,7 +4911,7 @@
       <c r="E103" t="s">
         <v>642</v>
       </c>
-      <c r="F103" s="3" t="s">
+      <c r="F103" s="2" t="s">
         <v>798</v>
       </c>
     </row>
@@ -4931,7 +4931,7 @@
       <c r="E104" t="s">
         <v>643</v>
       </c>
-      <c r="F104" s="3" t="s">
+      <c r="F104" s="2" t="s">
         <v>798</v>
       </c>
     </row>
@@ -4951,7 +4951,7 @@
       <c r="E105" t="s">
         <v>644</v>
       </c>
-      <c r="F105" s="3" t="s">
+      <c r="F105" s="2" t="s">
         <v>795</v>
       </c>
     </row>
@@ -4971,7 +4971,7 @@
       <c r="E106" t="s">
         <v>645</v>
       </c>
-      <c r="F106" s="3" t="s">
+      <c r="F106" s="2" t="s">
         <v>795</v>
       </c>
     </row>
@@ -4991,7 +4991,7 @@
       <c r="E107" t="s">
         <v>646</v>
       </c>
-      <c r="F107" s="3" t="s">
+      <c r="F107" s="2" t="s">
         <v>797</v>
       </c>
     </row>
@@ -5011,7 +5011,7 @@
       <c r="E108" t="s">
         <v>647</v>
       </c>
-      <c r="F108" s="3" t="s">
+      <c r="F108" s="2" t="s">
         <v>795</v>
       </c>
     </row>
@@ -5031,7 +5031,7 @@
       <c r="E109" t="s">
         <v>648</v>
       </c>
-      <c r="F109" s="3" t="s">
+      <c r="F109" s="2" t="s">
         <v>797</v>
       </c>
     </row>
@@ -5051,7 +5051,7 @@
       <c r="E110" t="s">
         <v>649</v>
       </c>
-      <c r="F110" s="3" t="s">
+      <c r="F110" s="2" t="s">
         <v>797</v>
       </c>
     </row>
@@ -5071,7 +5071,7 @@
       <c r="E111" t="s">
         <v>650</v>
       </c>
-      <c r="F111" s="3" t="s">
+      <c r="F111" s="2" t="s">
         <v>796</v>
       </c>
     </row>
@@ -5091,7 +5091,7 @@
       <c r="E112" t="s">
         <v>651</v>
       </c>
-      <c r="F112" s="3" t="s">
+      <c r="F112" s="2" t="s">
         <v>797</v>
       </c>
     </row>
@@ -5111,7 +5111,7 @@
       <c r="E113" t="s">
         <v>652</v>
       </c>
-      <c r="F113" s="3" t="s">
+      <c r="F113" s="2" t="s">
         <v>797</v>
       </c>
     </row>
@@ -5131,7 +5131,7 @@
       <c r="E114" t="s">
         <v>653</v>
       </c>
-      <c r="F114" s="3" t="s">
+      <c r="F114" s="2" t="s">
         <v>794</v>
       </c>
     </row>
@@ -5151,7 +5151,7 @@
       <c r="E115" t="s">
         <v>654</v>
       </c>
-      <c r="F115" s="3" t="s">
+      <c r="F115" s="2" t="s">
         <v>794</v>
       </c>
     </row>
@@ -5171,7 +5171,7 @@
       <c r="E116" t="s">
         <v>655</v>
       </c>
-      <c r="F116" s="3" t="s">
+      <c r="F116" s="2" t="s">
         <v>798</v>
       </c>
     </row>
@@ -5191,7 +5191,7 @@
       <c r="E117" t="s">
         <v>656</v>
       </c>
-      <c r="F117" s="3" t="s">
+      <c r="F117" s="2" t="s">
         <v>798</v>
       </c>
     </row>
@@ -5211,7 +5211,7 @@
       <c r="E118" t="s">
         <v>657</v>
       </c>
-      <c r="F118" s="3" t="s">
+      <c r="F118" s="2" t="s">
         <v>798</v>
       </c>
     </row>
@@ -5231,7 +5231,7 @@
       <c r="E119" t="s">
         <v>658</v>
       </c>
-      <c r="F119" s="3" t="s">
+      <c r="F119" s="2" t="s">
         <v>798</v>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       <c r="E120" t="s">
         <v>659</v>
       </c>
-      <c r="F120" s="3" t="s">
+      <c r="F120" s="2" t="s">
         <v>794</v>
       </c>
     </row>
@@ -5271,7 +5271,7 @@
       <c r="E121" t="s">
         <v>660</v>
       </c>
-      <c r="F121" s="3" t="s">
+      <c r="F121" s="2" t="s">
         <v>794</v>
       </c>
     </row>
@@ -5291,7 +5291,7 @@
       <c r="E122" t="s">
         <v>661</v>
       </c>
-      <c r="F122" s="3" t="s">
+      <c r="F122" s="2" t="s">
         <v>794</v>
       </c>
     </row>
@@ -5311,7 +5311,7 @@
       <c r="E123" t="s">
         <v>662</v>
       </c>
-      <c r="F123" s="3" t="s">
+      <c r="F123" s="2" t="s">
         <v>794</v>
       </c>
     </row>
@@ -5331,7 +5331,7 @@
       <c r="E124" t="s">
         <v>663</v>
       </c>
-      <c r="F124" s="3" t="s">
+      <c r="F124" s="2" t="s">
         <v>794</v>
       </c>
     </row>
@@ -5351,7 +5351,7 @@
       <c r="E125" t="s">
         <v>664</v>
       </c>
-      <c r="F125" s="3" t="s">
+      <c r="F125" s="2" t="s">
         <v>794</v>
       </c>
     </row>
@@ -5371,7 +5371,7 @@
       <c r="E126" t="s">
         <v>665</v>
       </c>
-      <c r="F126" s="3" t="s">
+      <c r="F126" s="2" t="s">
         <v>794</v>
       </c>
     </row>
@@ -5391,7 +5391,7 @@
       <c r="E127" t="s">
         <v>666</v>
       </c>
-      <c r="F127" s="3" t="s">
+      <c r="F127" s="2" t="s">
         <v>798</v>
       </c>
     </row>
@@ -5411,7 +5411,7 @@
       <c r="E128" t="s">
         <v>667</v>
       </c>
-      <c r="F128" s="3" t="s">
+      <c r="F128" s="2" t="s">
         <v>798</v>
       </c>
     </row>
@@ -5431,7 +5431,7 @@
       <c r="E129" t="s">
         <v>668</v>
       </c>
-      <c r="F129" s="3" t="s">
+      <c r="F129" s="2" t="s">
         <v>798</v>
       </c>
     </row>
@@ -5451,7 +5451,7 @@
       <c r="E130" t="s">
         <v>669</v>
       </c>
-      <c r="F130" s="3" t="s">
+      <c r="F130" s="2" t="s">
         <v>798</v>
       </c>
     </row>
@@ -5471,7 +5471,7 @@
       <c r="E131" t="s">
         <v>670</v>
       </c>
-      <c r="F131" s="3" t="s">
+      <c r="F131" s="2" t="s">
         <v>798</v>
       </c>
     </row>
@@ -5491,7 +5491,7 @@
       <c r="E132" t="s">
         <v>671</v>
       </c>
-      <c r="F132" s="3" t="s">
+      <c r="F132" s="2" t="s">
         <v>798</v>
       </c>
     </row>
@@ -5511,7 +5511,7 @@
       <c r="E133" t="s">
         <v>672</v>
       </c>
-      <c r="F133" s="3" t="s">
+      <c r="F133" s="2" t="s">
         <v>798</v>
       </c>
     </row>
@@ -5531,7 +5531,7 @@
       <c r="E134" t="s">
         <v>673</v>
       </c>
-      <c r="F134" s="3" t="s">
+      <c r="F134" s="2" t="s">
         <v>798</v>
       </c>
     </row>
@@ -5551,7 +5551,7 @@
       <c r="E135" t="s">
         <v>674</v>
       </c>
-      <c r="F135" s="3" t="s">
+      <c r="F135" s="2" t="s">
         <v>798</v>
       </c>
     </row>
@@ -5571,7 +5571,7 @@
       <c r="E136" t="s">
         <v>675</v>
       </c>
-      <c r="F136" s="3" t="s">
+      <c r="F136" s="2" t="s">
         <v>798</v>
       </c>
     </row>
@@ -5591,7 +5591,7 @@
       <c r="E137" t="s">
         <v>676</v>
       </c>
-      <c r="F137" s="3" t="s">
+      <c r="F137" s="2" t="s">
         <v>798</v>
       </c>
     </row>
@@ -5611,7 +5611,7 @@
       <c r="E138" t="s">
         <v>677</v>
       </c>
-      <c r="F138" s="3" t="s">
+      <c r="F138" s="2" t="s">
         <v>798</v>
       </c>
     </row>
@@ -5631,7 +5631,7 @@
       <c r="E139" t="s">
         <v>678</v>
       </c>
-      <c r="F139" s="3" t="s">
+      <c r="F139" s="2" t="s">
         <v>798</v>
       </c>
     </row>
@@ -5651,7 +5651,7 @@
       <c r="E140" t="s">
         <v>679</v>
       </c>
-      <c r="F140" s="3" t="s">
+      <c r="F140" s="2" t="s">
         <v>798</v>
       </c>
     </row>
@@ -5671,7 +5671,7 @@
       <c r="E141" t="s">
         <v>680</v>
       </c>
-      <c r="F141" s="3" t="s">
+      <c r="F141" s="2" t="s">
         <v>797</v>
       </c>
     </row>
@@ -5691,7 +5691,7 @@
       <c r="E142" t="s">
         <v>681</v>
       </c>
-      <c r="F142" s="3" t="s">
+      <c r="F142" s="2" t="s">
         <v>797</v>
       </c>
     </row>
@@ -5711,7 +5711,7 @@
       <c r="E143" t="s">
         <v>682</v>
       </c>
-      <c r="F143" s="3" t="s">
+      <c r="F143" s="2" t="s">
         <v>797</v>
       </c>
     </row>
@@ -5731,7 +5731,7 @@
       <c r="E144" t="s">
         <v>683</v>
       </c>
-      <c r="F144" s="3" t="s">
+      <c r="F144" s="2" t="s">
         <v>796</v>
       </c>
     </row>
@@ -5751,7 +5751,7 @@
       <c r="E145" t="s">
         <v>684</v>
       </c>
-      <c r="F145" s="3" t="s">
+      <c r="F145" s="2" t="s">
         <v>794</v>
       </c>
     </row>
@@ -5771,7 +5771,7 @@
       <c r="E146" t="s">
         <v>685</v>
       </c>
-      <c r="F146" s="3" t="s">
+      <c r="F146" s="2" t="s">
         <v>794</v>
       </c>
     </row>
@@ -5791,7 +5791,7 @@
       <c r="E147" t="s">
         <v>686</v>
       </c>
-      <c r="F147" s="3" t="s">
+      <c r="F147" s="2" t="s">
         <v>794</v>
       </c>
     </row>
@@ -5811,7 +5811,7 @@
       <c r="E148" t="s">
         <v>687</v>
       </c>
-      <c r="F148" s="3" t="s">
+      <c r="F148" s="2" t="s">
         <v>794</v>
       </c>
     </row>
@@ -5831,7 +5831,7 @@
       <c r="E149" t="s">
         <v>688</v>
       </c>
-      <c r="F149" s="3" t="s">
+      <c r="F149" s="2" t="s">
         <v>798</v>
       </c>
     </row>
@@ -5851,7 +5851,7 @@
       <c r="E150" t="s">
         <v>689</v>
       </c>
-      <c r="F150" s="3" t="s">
+      <c r="F150" s="2" t="s">
         <v>797</v>
       </c>
     </row>
@@ -5871,7 +5871,7 @@
       <c r="E151" t="s">
         <v>690</v>
       </c>
-      <c r="F151" s="3" t="s">
+      <c r="F151" s="2" t="s">
         <v>794</v>
       </c>
     </row>
@@ -5891,7 +5891,7 @@
       <c r="E152" t="s">
         <v>691</v>
       </c>
-      <c r="F152" s="3" t="s">
+      <c r="F152" s="2" t="s">
         <v>794</v>
       </c>
     </row>
@@ -5911,7 +5911,7 @@
       <c r="E153" t="s">
         <v>692</v>
       </c>
-      <c r="F153" s="3" t="s">
+      <c r="F153" s="2" t="s">
         <v>794</v>
       </c>
     </row>
@@ -5931,7 +5931,7 @@
       <c r="E154" t="s">
         <v>693</v>
       </c>
-      <c r="F154" s="3" t="s">
+      <c r="F154" s="2" t="s">
         <v>794</v>
       </c>
     </row>
@@ -5951,7 +5951,7 @@
       <c r="E155" t="s">
         <v>694</v>
       </c>
-      <c r="F155" s="3" t="s">
+      <c r="F155" s="2" t="s">
         <v>794</v>
       </c>
     </row>
@@ -5971,7 +5971,7 @@
       <c r="E156" t="s">
         <v>695</v>
       </c>
-      <c r="F156" s="3" t="s">
+      <c r="F156" s="2" t="s">
         <v>794</v>
       </c>
     </row>
@@ -5991,7 +5991,7 @@
       <c r="E157" t="s">
         <v>696</v>
       </c>
-      <c r="F157" s="3" t="s">
+      <c r="F157" s="2" t="s">
         <v>794</v>
       </c>
     </row>
@@ -6011,7 +6011,7 @@
       <c r="E158" t="s">
         <v>697</v>
       </c>
-      <c r="F158" s="3" t="s">
+      <c r="F158" s="2" t="s">
         <v>794</v>
       </c>
     </row>
@@ -6031,7 +6031,7 @@
       <c r="E159" t="s">
         <v>698</v>
       </c>
-      <c r="F159" s="3" t="s">
+      <c r="F159" s="2" t="s">
         <v>794</v>
       </c>
     </row>
@@ -6051,7 +6051,7 @@
       <c r="E160" t="s">
         <v>699</v>
       </c>
-      <c r="F160" s="3" t="s">
+      <c r="F160" s="2" t="s">
         <v>794</v>
       </c>
     </row>
@@ -6071,7 +6071,7 @@
       <c r="E161" t="s">
         <v>700</v>
       </c>
-      <c r="F161" s="3" t="s">
+      <c r="F161" s="2" t="s">
         <v>794</v>
       </c>
     </row>
@@ -6091,7 +6091,7 @@
       <c r="E162" t="s">
         <v>701</v>
       </c>
-      <c r="F162" s="3" t="s">
+      <c r="F162" s="2" t="s">
         <v>794</v>
       </c>
     </row>
@@ -6111,7 +6111,7 @@
       <c r="E163" t="s">
         <v>702</v>
       </c>
-      <c r="F163" s="3" t="s">
+      <c r="F163" s="2" t="s">
         <v>794</v>
       </c>
     </row>
@@ -6131,7 +6131,7 @@
       <c r="E164" t="s">
         <v>703</v>
       </c>
-      <c r="F164" s="3" t="s">
+      <c r="F164" s="2" t="s">
         <v>794</v>
       </c>
     </row>
@@ -6151,7 +6151,7 @@
       <c r="E165" t="s">
         <v>704</v>
       </c>
-      <c r="F165" s="3" t="s">
+      <c r="F165" s="2" t="s">
         <v>794</v>
       </c>
     </row>
@@ -6171,7 +6171,7 @@
       <c r="E166" t="s">
         <v>705</v>
       </c>
-      <c r="F166" s="3" t="s">
+      <c r="F166" s="2" t="s">
         <v>794</v>
       </c>
     </row>
@@ -6191,7 +6191,7 @@
       <c r="E167" t="s">
         <v>706</v>
       </c>
-      <c r="F167" s="3" t="s">
+      <c r="F167" s="2" t="s">
         <v>794</v>
       </c>
     </row>
@@ -6211,7 +6211,7 @@
       <c r="E168" t="s">
         <v>707</v>
       </c>
-      <c r="F168" s="3" t="s">
+      <c r="F168" s="2" t="s">
         <v>794</v>
       </c>
     </row>
@@ -6231,7 +6231,7 @@
       <c r="E169" t="s">
         <v>708</v>
       </c>
-      <c r="F169" s="3" t="s">
+      <c r="F169" s="2" t="s">
         <v>798</v>
       </c>
     </row>
@@ -6251,7 +6251,7 @@
       <c r="E170" t="s">
         <v>709</v>
       </c>
-      <c r="F170" s="3" t="s">
+      <c r="F170" s="2" t="s">
         <v>798</v>
       </c>
     </row>
@@ -6271,7 +6271,7 @@
       <c r="E171" t="s">
         <v>710</v>
       </c>
-      <c r="F171" s="3" t="s">
+      <c r="F171" s="2" t="s">
         <v>798</v>
       </c>
     </row>
@@ -6291,7 +6291,7 @@
       <c r="E172" t="s">
         <v>711</v>
       </c>
-      <c r="F172" s="3" t="s">
+      <c r="F172" s="2" t="s">
         <v>798</v>
       </c>
     </row>
@@ -6311,7 +6311,7 @@
       <c r="E173" t="s">
         <v>712</v>
       </c>
-      <c r="F173" s="3" t="s">
+      <c r="F173" s="2" t="s">
         <v>798</v>
       </c>
     </row>
@@ -6331,7 +6331,7 @@
       <c r="E174" t="s">
         <v>713</v>
       </c>
-      <c r="F174" s="3" t="s">
+      <c r="F174" s="2" t="s">
         <v>798</v>
       </c>
     </row>
@@ -6351,7 +6351,7 @@
       <c r="E175" t="s">
         <v>714</v>
       </c>
-      <c r="F175" s="3" t="s">
+      <c r="F175" s="2" t="s">
         <v>798</v>
       </c>
     </row>
@@ -6371,7 +6371,7 @@
       <c r="E176" t="s">
         <v>715</v>
       </c>
-      <c r="F176" s="3" t="s">
+      <c r="F176" s="2" t="s">
         <v>798</v>
       </c>
     </row>
@@ -6391,7 +6391,7 @@
       <c r="E177" t="s">
         <v>716</v>
       </c>
-      <c r="F177" s="3" t="s">
+      <c r="F177" s="2" t="s">
         <v>798</v>
       </c>
     </row>
@@ -6411,7 +6411,7 @@
       <c r="E178" t="s">
         <v>717</v>
       </c>
-      <c r="F178" s="3" t="s">
+      <c r="F178" s="2" t="s">
         <v>798</v>
       </c>
     </row>
@@ -6431,7 +6431,7 @@
       <c r="E179" t="s">
         <v>718</v>
       </c>
-      <c r="F179" s="3" t="s">
+      <c r="F179" s="2" t="s">
         <v>798</v>
       </c>
     </row>
@@ -6451,7 +6451,7 @@
       <c r="E180" t="s">
         <v>719</v>
       </c>
-      <c r="F180" s="3" t="s">
+      <c r="F180" s="2" t="s">
         <v>797</v>
       </c>
     </row>
@@ -6471,7 +6471,7 @@
       <c r="E181" t="s">
         <v>720</v>
       </c>
-      <c r="F181" s="3" t="s">
+      <c r="F181" s="2" t="s">
         <v>796</v>
       </c>
     </row>
@@ -6491,7 +6491,7 @@
       <c r="E182" t="s">
         <v>721</v>
       </c>
-      <c r="F182" s="3" t="s">
+      <c r="F182" s="2" t="s">
         <v>796</v>
       </c>
     </row>
@@ -6511,7 +6511,7 @@
       <c r="E183" t="s">
         <v>722</v>
       </c>
-      <c r="F183" s="3" t="s">
+      <c r="F183" s="2" t="s">
         <v>797</v>
       </c>
     </row>
@@ -6531,7 +6531,7 @@
       <c r="E184" t="s">
         <v>723</v>
       </c>
-      <c r="F184" s="3" t="s">
+      <c r="F184" s="2" t="s">
         <v>797</v>
       </c>
     </row>
@@ -6551,7 +6551,7 @@
       <c r="E185" t="s">
         <v>724</v>
       </c>
-      <c r="F185" s="3" t="s">
+      <c r="F185" s="2" t="s">
         <v>797</v>
       </c>
     </row>
@@ -6571,7 +6571,7 @@
       <c r="E186" t="s">
         <v>725</v>
       </c>
-      <c r="F186" s="3" t="s">
+      <c r="F186" s="2" t="s">
         <v>797</v>
       </c>
     </row>
@@ -6591,7 +6591,7 @@
       <c r="E187" t="s">
         <v>726</v>
       </c>
-      <c r="F187" s="3" t="s">
+      <c r="F187" s="2" t="s">
         <v>797</v>
       </c>
     </row>
@@ -6611,7 +6611,7 @@
       <c r="E188" t="s">
         <v>727</v>
       </c>
-      <c r="F188" s="3" t="s">
+      <c r="F188" s="2" t="s">
         <v>794</v>
       </c>
     </row>
@@ -6631,7 +6631,7 @@
       <c r="E189" t="s">
         <v>728</v>
       </c>
-      <c r="F189" s="3" t="s">
+      <c r="F189" s="2" t="s">
         <v>794</v>
       </c>
     </row>
@@ -6651,7 +6651,7 @@
       <c r="E190" t="s">
         <v>729</v>
       </c>
-      <c r="F190" s="3" t="s">
+      <c r="F190" s="2" t="s">
         <v>794</v>
       </c>
     </row>
@@ -6671,7 +6671,7 @@
       <c r="E191" t="s">
         <v>730</v>
       </c>
-      <c r="F191" s="3" t="s">
+      <c r="F191" s="2" t="s">
         <v>794</v>
       </c>
     </row>
@@ -6691,7 +6691,7 @@
       <c r="E192" t="s">
         <v>731</v>
       </c>
-      <c r="F192" s="3" t="s">
+      <c r="F192" s="2" t="s">
         <v>798</v>
       </c>
     </row>
@@ -6711,7 +6711,7 @@
       <c r="E193" t="s">
         <v>732</v>
       </c>
-      <c r="F193" s="3" t="s">
+      <c r="F193" s="2" t="s">
         <v>798</v>
       </c>
     </row>
@@ -6731,7 +6731,7 @@
       <c r="E194" t="s">
         <v>733</v>
       </c>
-      <c r="F194" s="3" t="s">
+      <c r="F194" s="2" t="s">
         <v>798</v>
       </c>
     </row>
@@ -6751,7 +6751,7 @@
       <c r="E195" t="s">
         <v>734</v>
       </c>
-      <c r="F195" s="3" t="s">
+      <c r="F195" s="2" t="s">
         <v>798</v>
       </c>
     </row>
@@ -6771,7 +6771,7 @@
       <c r="E196" t="s">
         <v>735</v>
       </c>
-      <c r="F196" s="3" t="s">
+      <c r="F196" s="2" t="s">
         <v>798</v>
       </c>
     </row>
@@ -6791,7 +6791,7 @@
       <c r="E197" t="s">
         <v>736</v>
       </c>
-      <c r="F197" s="3" t="s">
+      <c r="F197" s="2" t="s">
         <v>798</v>
       </c>
     </row>
@@ -6811,7 +6811,7 @@
       <c r="E198" t="s">
         <v>737</v>
       </c>
-      <c r="F198" s="3" t="s">
+      <c r="F198" s="2" t="s">
         <v>798</v>
       </c>
     </row>
@@ -6831,7 +6831,7 @@
       <c r="E199" t="s">
         <v>738</v>
       </c>
-      <c r="F199" s="3" t="s">
+      <c r="F199" s="2" t="s">
         <v>795</v>
       </c>
     </row>
@@ -6851,7 +6851,7 @@
       <c r="E200" t="s">
         <v>739</v>
       </c>
-      <c r="F200" s="3" t="s">
+      <c r="F200" s="2" t="s">
         <v>796</v>
       </c>
     </row>
@@ -6871,7 +6871,7 @@
       <c r="E201" t="s">
         <v>740</v>
       </c>
-      <c r="F201" s="3" t="s">
+      <c r="F201" s="2" t="s">
         <v>794</v>
       </c>
     </row>
@@ -6891,7 +6891,7 @@
       <c r="E202" t="s">
         <v>741</v>
       </c>
-      <c r="F202" s="3" t="s">
+      <c r="F202" s="2" t="s">
         <v>794</v>
       </c>
     </row>
@@ -6911,7 +6911,7 @@
       <c r="E203" t="s">
         <v>742</v>
       </c>
-      <c r="F203" s="3" t="s">
+      <c r="F203" s="2" t="s">
         <v>794</v>
       </c>
     </row>
@@ -6931,7 +6931,7 @@
       <c r="E204" t="s">
         <v>743</v>
       </c>
-      <c r="F204" s="3" t="s">
+      <c r="F204" s="2" t="s">
         <v>798</v>
       </c>
     </row>
@@ -6951,7 +6951,7 @@
       <c r="E205" t="s">
         <v>744</v>
       </c>
-      <c r="F205" s="3" t="s">
+      <c r="F205" s="2" t="s">
         <v>798</v>
       </c>
     </row>
@@ -6971,7 +6971,7 @@
       <c r="E206" t="s">
         <v>745</v>
       </c>
-      <c r="F206" s="3" t="s">
+      <c r="F206" s="2" t="s">
         <v>798</v>
       </c>
     </row>
@@ -6991,7 +6991,7 @@
       <c r="E207" t="s">
         <v>746</v>
       </c>
-      <c r="F207" s="3" t="s">
+      <c r="F207" s="2" t="s">
         <v>798</v>
       </c>
     </row>
@@ -7011,7 +7011,7 @@
       <c r="E208" t="s">
         <v>747</v>
       </c>
-      <c r="F208" s="3" t="s">
+      <c r="F208" s="2" t="s">
         <v>796</v>
       </c>
     </row>
@@ -7031,7 +7031,7 @@
       <c r="E209" t="s">
         <v>748</v>
       </c>
-      <c r="F209" s="3" t="s">
+      <c r="F209" s="2" t="s">
         <v>796</v>
       </c>
     </row>
@@ -7051,7 +7051,7 @@
       <c r="E210" t="s">
         <v>749</v>
       </c>
-      <c r="F210" s="3" t="s">
+      <c r="F210" s="2" t="s">
         <v>797</v>
       </c>
     </row>
@@ -7071,7 +7071,7 @@
       <c r="E211" t="s">
         <v>750</v>
       </c>
-      <c r="F211" s="3" t="s">
+      <c r="F211" s="2" t="s">
         <v>796</v>
       </c>
     </row>
@@ -7091,7 +7091,9 @@
       <c r="E212" t="s">
         <v>751</v>
       </c>
-      <c r="F212" s="5"/>
+      <c r="F212" s="4" t="s">
+        <v>800</v>
+      </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
@@ -7109,7 +7111,7 @@
       <c r="E213" t="s">
         <v>752</v>
       </c>
-      <c r="F213" s="3" t="s">
+      <c r="F213" s="2" t="s">
         <v>798</v>
       </c>
     </row>
@@ -7129,7 +7131,7 @@
       <c r="E214" t="s">
         <v>753</v>
       </c>
-      <c r="F214" s="3" t="s">
+      <c r="F214" s="2" t="s">
         <v>798</v>
       </c>
     </row>
@@ -7149,7 +7151,7 @@
       <c r="E215" t="s">
         <v>754</v>
       </c>
-      <c r="F215" s="3" t="s">
+      <c r="F215" s="2" t="s">
         <v>798</v>
       </c>
     </row>
@@ -7169,7 +7171,7 @@
       <c r="E216" t="s">
         <v>755</v>
       </c>
-      <c r="F216" s="3" t="s">
+      <c r="F216" s="2" t="s">
         <v>798</v>
       </c>
     </row>
@@ -7189,7 +7191,7 @@
       <c r="E217" t="s">
         <v>756</v>
       </c>
-      <c r="F217" s="3" t="s">
+      <c r="F217" s="2" t="s">
         <v>798</v>
       </c>
     </row>
@@ -7209,7 +7211,7 @@
       <c r="E218" t="s">
         <v>757</v>
       </c>
-      <c r="F218" s="3" t="s">
+      <c r="F218" s="2" t="s">
         <v>794</v>
       </c>
     </row>
@@ -7229,7 +7231,7 @@
       <c r="E219" t="s">
         <v>758</v>
       </c>
-      <c r="F219" s="3" t="s">
+      <c r="F219" s="2" t="s">
         <v>794</v>
       </c>
     </row>
@@ -7249,7 +7251,7 @@
       <c r="E220" t="s">
         <v>759</v>
       </c>
-      <c r="F220" s="3" t="s">
+      <c r="F220" s="2" t="s">
         <v>794</v>
       </c>
     </row>
@@ -7269,7 +7271,7 @@
       <c r="E221" t="s">
         <v>760</v>
       </c>
-      <c r="F221" s="3" t="s">
+      <c r="F221" s="2" t="s">
         <v>794</v>
       </c>
     </row>
@@ -7289,7 +7291,7 @@
       <c r="E222" t="s">
         <v>761</v>
       </c>
-      <c r="F222" s="3" t="s">
+      <c r="F222" s="2" t="s">
         <v>794</v>
       </c>
     </row>
@@ -7309,7 +7311,7 @@
       <c r="E223" t="s">
         <v>762</v>
       </c>
-      <c r="F223" s="3" t="s">
+      <c r="F223" s="2" t="s">
         <v>794</v>
       </c>
     </row>
@@ -7329,7 +7331,7 @@
       <c r="E224" t="s">
         <v>763</v>
       </c>
-      <c r="F224" s="3" t="s">
+      <c r="F224" s="2" t="s">
         <v>794</v>
       </c>
     </row>
@@ -7349,7 +7351,7 @@
       <c r="E225" t="s">
         <v>764</v>
       </c>
-      <c r="F225" s="3" t="s">
+      <c r="F225" s="2" t="s">
         <v>798</v>
       </c>
     </row>
@@ -7369,7 +7371,7 @@
       <c r="E226" t="s">
         <v>765</v>
       </c>
-      <c r="F226" s="3" t="s">
+      <c r="F226" s="2" t="s">
         <v>796</v>
       </c>
     </row>
@@ -7389,7 +7391,7 @@
       <c r="E227" t="s">
         <v>766</v>
       </c>
-      <c r="F227" s="3" t="s">
+      <c r="F227" s="2" t="s">
         <v>797</v>
       </c>
     </row>
@@ -7409,7 +7411,7 @@
       <c r="E228" t="s">
         <v>767</v>
       </c>
-      <c r="F228" s="3" t="s">
+      <c r="F228" s="2" t="s">
         <v>794</v>
       </c>
     </row>
@@ -7429,7 +7431,7 @@
       <c r="E229" t="s">
         <v>768</v>
       </c>
-      <c r="F229" s="3" t="s">
+      <c r="F229" s="2" t="s">
         <v>794</v>
       </c>
     </row>
@@ -7449,7 +7451,7 @@
       <c r="E230" t="s">
         <v>769</v>
       </c>
-      <c r="F230" s="3" t="s">
+      <c r="F230" s="2" t="s">
         <v>798</v>
       </c>
     </row>
@@ -7469,7 +7471,7 @@
       <c r="E231" t="s">
         <v>770</v>
       </c>
-      <c r="F231" s="3" t="s">
+      <c r="F231" s="2" t="s">
         <v>798</v>
       </c>
     </row>
@@ -7489,7 +7491,7 @@
       <c r="E232" t="s">
         <v>771</v>
       </c>
-      <c r="F232" s="3" t="s">
+      <c r="F232" s="2" t="s">
         <v>798</v>
       </c>
     </row>
@@ -7509,7 +7511,7 @@
       <c r="E233" t="s">
         <v>772</v>
       </c>
-      <c r="F233" s="3" t="s">
+      <c r="F233" s="2" t="s">
         <v>794</v>
       </c>
     </row>
@@ -7529,7 +7531,7 @@
       <c r="E234" t="s">
         <v>773</v>
       </c>
-      <c r="F234" s="3" t="s">
+      <c r="F234" s="2" t="s">
         <v>798</v>
       </c>
     </row>
@@ -7549,7 +7551,7 @@
       <c r="E235" t="s">
         <v>774</v>
       </c>
-      <c r="F235" s="3" t="s">
+      <c r="F235" s="2" t="s">
         <v>798</v>
       </c>
     </row>
@@ -7569,7 +7571,7 @@
       <c r="E236" t="s">
         <v>775</v>
       </c>
-      <c r="F236" s="3" t="s">
+      <c r="F236" s="2" t="s">
         <v>798</v>
       </c>
     </row>
@@ -7589,7 +7591,7 @@
       <c r="E237" t="s">
         <v>776</v>
       </c>
-      <c r="F237" s="3" t="s">
+      <c r="F237" s="2" t="s">
         <v>798</v>
       </c>
     </row>
@@ -7609,7 +7611,7 @@
       <c r="E238" t="s">
         <v>777</v>
       </c>
-      <c r="F238" s="3" t="s">
+      <c r="F238" s="2" t="s">
         <v>798</v>
       </c>
     </row>
@@ -7629,7 +7631,7 @@
       <c r="E239" t="s">
         <v>778</v>
       </c>
-      <c r="F239" s="3" t="s">
+      <c r="F239" s="2" t="s">
         <v>796</v>
       </c>
     </row>
@@ -7649,7 +7651,7 @@
       <c r="E240" t="s">
         <v>779</v>
       </c>
-      <c r="F240" s="3" t="s">
+      <c r="F240" s="2" t="s">
         <v>795</v>
       </c>
     </row>
@@ -7669,7 +7671,7 @@
       <c r="E241" t="s">
         <v>780</v>
       </c>
-      <c r="F241" s="3" t="s">
+      <c r="F241" s="2" t="s">
         <v>795</v>
       </c>
     </row>
@@ -7689,7 +7691,7 @@
       <c r="E242" t="s">
         <v>781</v>
       </c>
-      <c r="F242" s="3" t="s">
+      <c r="F242" s="2" t="s">
         <v>795</v>
       </c>
     </row>
@@ -7709,7 +7711,7 @@
       <c r="E243" t="s">
         <v>782</v>
       </c>
-      <c r="F243" s="3" t="s">
+      <c r="F243" s="2" t="s">
         <v>795</v>
       </c>
     </row>
@@ -7729,7 +7731,7 @@
       <c r="E244" t="s">
         <v>783</v>
       </c>
-      <c r="F244" s="3" t="s">
+      <c r="F244" s="2" t="s">
         <v>794</v>
       </c>
     </row>
@@ -7749,7 +7751,7 @@
       <c r="E245" t="s">
         <v>784</v>
       </c>
-      <c r="F245" s="3" t="s">
+      <c r="F245" s="2" t="s">
         <v>798</v>
       </c>
     </row>
@@ -7769,7 +7771,7 @@
       <c r="E246" t="s">
         <v>785</v>
       </c>
-      <c r="F246" s="3" t="s">
+      <c r="F246" s="2" t="s">
         <v>798</v>
       </c>
     </row>
@@ -7789,7 +7791,7 @@
       <c r="E247" t="s">
         <v>786</v>
       </c>
-      <c r="F247" s="3" t="s">
+      <c r="F247" s="2" t="s">
         <v>798</v>
       </c>
     </row>
@@ -7809,7 +7811,7 @@
       <c r="E248" t="s">
         <v>787</v>
       </c>
-      <c r="F248" s="3" t="s">
+      <c r="F248" s="2" t="s">
         <v>798</v>
       </c>
     </row>
@@ -7829,7 +7831,7 @@
       <c r="E249" t="s">
         <v>788</v>
       </c>
-      <c r="F249" s="3" t="s">
+      <c r="F249" s="2" t="s">
         <v>794</v>
       </c>
     </row>
@@ -7849,7 +7851,7 @@
       <c r="E250" t="s">
         <v>789</v>
       </c>
-      <c r="F250" s="3" t="s">
+      <c r="F250" s="2" t="s">
         <v>794</v>
       </c>
     </row>
@@ -7869,7 +7871,7 @@
       <c r="E251" t="s">
         <v>790</v>
       </c>
-      <c r="F251" s="3" t="s">
+      <c r="F251" s="2" t="s">
         <v>794</v>
       </c>
     </row>
@@ -7889,7 +7891,7 @@
       <c r="E252" t="s">
         <v>791</v>
       </c>
-      <c r="F252" s="3" t="s">
+      <c r="F252" s="2" t="s">
         <v>798</v>
       </c>
     </row>
@@ -7909,7 +7911,7 @@
       <c r="E253" t="s">
         <v>792</v>
       </c>
-      <c r="F253" s="3" t="s">
+      <c r="F253" s="2" t="s">
         <v>797</v>
       </c>
     </row>
